--- a/BEMFSimulation/ExcelResults/PhaseVoltage5000.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage5000.xlsx
@@ -408,13 +408,13 @@
         <v>3.333333333333333e-05</v>
       </c>
       <c r="B2">
-        <v>3.671310846904419</v>
+        <v>5.13557677705584</v>
       </c>
       <c r="C2">
-        <v>328.8055194588016</v>
+        <v>333.33049007843</v>
       </c>
       <c r="D2">
-        <v>-346.2632511050309</v>
+        <v>-354.572251910756</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>6.666666666666667e-05</v>
       </c>
       <c r="B3">
-        <v>20.86617626676113</v>
+        <v>20.96202462885596</v>
       </c>
       <c r="C3">
-        <v>313.7330211718586</v>
+        <v>322.0338341539702</v>
       </c>
       <c r="D3">
-        <v>-342.1766430912673</v>
+        <v>-354.7481407822052</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001</v>
       </c>
       <c r="B4">
-        <v>62.32849179179684</v>
+        <v>62.01901327036602</v>
       </c>
       <c r="C4">
-        <v>288.0926332841029</v>
+        <v>301.5359100726055</v>
       </c>
       <c r="D4">
-        <v>-328.2392717444133</v>
+        <v>-340.3417114197884</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001333333333333333</v>
       </c>
       <c r="B5">
-        <v>112.1389149032256</v>
+        <v>113.0270732068901</v>
       </c>
       <c r="C5">
-        <v>249.767361950088</v>
+        <v>248.0065605046142</v>
       </c>
       <c r="D5">
-        <v>-317.1930037040175</v>
+        <v>-320.3508856280542</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B6">
-        <v>141.3786146246323</v>
+        <v>147.6541570536304</v>
       </c>
       <c r="C6">
-        <v>207.7131477772046</v>
+        <v>211.6255458720462</v>
       </c>
       <c r="D6">
-        <v>-326.0353882322285</v>
+        <v>-338.7449089250049</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0002</v>
       </c>
       <c r="B7">
-        <v>152.9742750774268</v>
+        <v>156.8382384775337</v>
       </c>
       <c r="C7">
-        <v>182.5546267254288</v>
+        <v>189.1064460526858</v>
       </c>
       <c r="D7">
-        <v>-334.2563569873888</v>
+        <v>-345.3598924918095</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002333333333333334</v>
       </c>
       <c r="B8">
-        <v>165.8385137765517</v>
+        <v>166.0143209938222</v>
       </c>
       <c r="C8">
-        <v>173.9008895728772</v>
+        <v>178.0834830161199</v>
       </c>
       <c r="D8">
-        <v>-345.0804783523947</v>
+        <v>-348.7503042786084</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002666666666666667</v>
       </c>
       <c r="B9">
-        <v>174.0407635471477</v>
+        <v>177.001426541018</v>
       </c>
       <c r="C9">
-        <v>166.3795552813063</v>
+        <v>167.736758810836</v>
       </c>
       <c r="D9">
-        <v>-346.2960688209464</v>
+        <v>-349.4316016018172</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0003000000000000001</v>
       </c>
       <c r="B10">
-        <v>182.3505663944902</v>
+        <v>188.3385469836782</v>
       </c>
       <c r="C10">
-        <v>153.1640758299357</v>
+        <v>155.5803723868425</v>
       </c>
       <c r="D10">
-        <v>-335.3998575371985</v>
+        <v>-342.8221778059838</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B11">
-        <v>207.2802188846476</v>
+        <v>214.3678615782935</v>
       </c>
       <c r="C11">
-        <v>141.8153622033991</v>
+        <v>148.6029632045679</v>
       </c>
       <c r="D11">
-        <v>-327.2994974940028</v>
+        <v>-343.9689845812287</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0003666666666666668</v>
       </c>
       <c r="B12">
-        <v>249.6100248343325</v>
+        <v>251.9923538998985</v>
       </c>
       <c r="C12">
-        <v>112.5684456863579</v>
+        <v>111.0106478162516</v>
       </c>
       <c r="D12">
-        <v>-318.2002770559856</v>
+        <v>-324.2209892811947</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0004000000000000001</v>
       </c>
       <c r="B13">
-        <v>287.5217482934036</v>
+        <v>295.0841628728738</v>
       </c>
       <c r="C13">
-        <v>63.17350475076144</v>
+        <v>61.44266778453852</v>
       </c>
       <c r="D13">
-        <v>-328.5980782182632</v>
+        <v>-335.7294921186806</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0004333333333333335</v>
       </c>
       <c r="B14">
-        <v>313.5734430516765</v>
+        <v>325.7313108338</v>
       </c>
       <c r="C14">
-        <v>21.42505613814793</v>
+        <v>21.12695836199371</v>
       </c>
       <c r="D14">
-        <v>-341.6013974020891</v>
+        <v>-354.3565010798142</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0004666666666666668</v>
       </c>
       <c r="B15">
-        <v>328.2138498781082</v>
+        <v>331.522284613248</v>
       </c>
       <c r="C15">
-        <v>4.003526191472539</v>
+        <v>5.601131707633905</v>
       </c>
       <c r="D15">
-        <v>-344.8711100914455</v>
+        <v>-352.0061573485902</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0005000000000000001</v>
       </c>
       <c r="B16">
-        <v>345.304523285535</v>
+        <v>349.6914141745779</v>
       </c>
       <c r="C16">
-        <v>-0.01072667866031107</v>
+        <v>0.09702452646795368</v>
       </c>
       <c r="D16">
-        <v>-344.7744427486546</v>
+        <v>-350.8844948291539</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0005333333333333335</v>
       </c>
       <c r="B17">
-        <v>345.3972308960235</v>
+        <v>352.669910384076</v>
       </c>
       <c r="C17">
-        <v>-3.719084622577362</v>
+        <v>-4.92285554402963</v>
       </c>
       <c r="D17">
-        <v>-328.9529824087692</v>
+        <v>-333.3925949681418</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0005666666666666668</v>
       </c>
       <c r="B18">
-        <v>341.4001522363769</v>
+        <v>355.2864917343083</v>
       </c>
       <c r="C18">
-        <v>-20.63169603557125</v>
+        <v>-20.43254523751217</v>
       </c>
       <c r="D18">
-        <v>-313.683763484229</v>
+        <v>-322.7772098364501</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0006000000000000002</v>
       </c>
       <c r="B19">
-        <v>329.1054105641352</v>
+        <v>342.283542165806</v>
       </c>
       <c r="C19">
-        <v>-62.05357646116654</v>
+        <v>-61.69799475633994</v>
       </c>
       <c r="D19">
-        <v>-288.6231424054937</v>
+        <v>-301.3992061673978</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0006333333333333335</v>
       </c>
       <c r="B20">
-        <v>318.3573681850381</v>
+        <v>322.8894609481437</v>
       </c>
       <c r="C20">
-        <v>-112.1974109545509</v>
+        <v>-111.914778121594</v>
       </c>
       <c r="D20">
-        <v>-249.9534945305262</v>
+        <v>-248.3121984587118</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0006666666666666669</v>
       </c>
       <c r="B21">
-        <v>326.9310342850641</v>
+        <v>340.7369926522326</v>
       </c>
       <c r="C21">
-        <v>-141.6161135740385</v>
+        <v>-147.4022790878319</v>
       </c>
       <c r="D21">
-        <v>-207.7358077199251</v>
+        <v>-212.5983886362107</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0007000000000000002</v>
       </c>
       <c r="B22">
-        <v>334.9154904150171</v>
+        <v>345.2158135208908</v>
       </c>
       <c r="C22">
-        <v>-152.9392026805917</v>
+        <v>-157.0526118273422</v>
       </c>
       <c r="D22">
-        <v>-182.8660217326244</v>
+        <v>-189.957722359798</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0007333333333333336</v>
       </c>
       <c r="B23">
-        <v>345.2219394372315</v>
+        <v>348.7604611583506</v>
       </c>
       <c r="C23">
-        <v>-165.8284484874495</v>
+        <v>-167.0037705306639</v>
       </c>
       <c r="D23">
-        <v>-174.134640503229</v>
+        <v>-177.9988807306815</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0007666666666666669</v>
       </c>
       <c r="B24">
-        <v>345.9228277981443</v>
+        <v>350.9075175762335</v>
       </c>
       <c r="C24">
-        <v>-174.0737376175611</v>
+        <v>-177.9995821679502</v>
       </c>
       <c r="D24">
-        <v>-166.2714275871047</v>
+        <v>-167.3854752297699</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0008000000000000003</v>
       </c>
       <c r="B25">
-        <v>335.8332508991421</v>
+        <v>344.0967261180266</v>
       </c>
       <c r="C25">
-        <v>-182.6093766936912</v>
+        <v>-188.3174442016557</v>
       </c>
       <c r="D25">
-        <v>-153.0112101132208</v>
+        <v>-155.6896957506521</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0008333333333333336</v>
       </c>
       <c r="B26">
-        <v>328.1769247873349</v>
+        <v>343.6108866956035</v>
       </c>
       <c r="C26">
-        <v>-207.4767325270921</v>
+        <v>-213.2847712480304</v>
       </c>
       <c r="D26">
-        <v>-141.8973319614977</v>
+        <v>-149.0773590926066</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.000866666666666667</v>
       </c>
       <c r="B27">
-        <v>319.3576838722362</v>
+        <v>322.6010988087223</v>
       </c>
       <c r="C27">
-        <v>-249.7080737090759</v>
+        <v>-251.17683834915</v>
       </c>
       <c r="D27">
-        <v>-112.7104615247071</v>
+        <v>-112.4216634540417</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.0009000000000000003</v>
       </c>
       <c r="B28">
-        <v>330.1443968712417</v>
+        <v>335.894821838485</v>
       </c>
       <c r="C28">
-        <v>-288.1380325346397</v>
+        <v>-295.8878596917722</v>
       </c>
       <c r="D28">
-        <v>-63.07681951105786</v>
+        <v>-61.84016571101</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.0009333333333333336</v>
       </c>
       <c r="B29">
-        <v>342.290885249838</v>
+        <v>356.3709671073251</v>
       </c>
       <c r="C29">
-        <v>-314.0886796055055</v>
+        <v>-326.4641725422817</v>
       </c>
       <c r="D29">
-        <v>-21.19536631912916</v>
+        <v>-20.61175753493988</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.000966666666666667</v>
       </c>
       <c r="B30">
-        <v>344.6912865772546</v>
+        <v>353.8864257016501</v>
       </c>
       <c r="C30">
-        <v>-328.3896565810576</v>
+        <v>-331.9895007074899</v>
       </c>
       <c r="D30">
-        <v>-3.791378995891825</v>
+        <v>-5.102135310301737</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001</v>
       </c>
       <c r="B31">
-        <v>344.4649945039227</v>
+        <v>349.7311988708</v>
       </c>
       <c r="C31">
-        <v>-345.0727582897217</v>
+        <v>-349.3728230810119</v>
       </c>
       <c r="D31">
-        <v>0.1241857461198315</v>
+        <v>0.1023936007059356</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001033333333333334</v>
       </c>
       <c r="B32">
-        <v>328.4704151397572</v>
+        <v>329.883743328252</v>
       </c>
       <c r="C32">
-        <v>-345.366687826134</v>
+        <v>-351.9273094126401</v>
       </c>
       <c r="D32">
-        <v>3.760465685846703</v>
+        <v>4.680377199545865</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001066666666666667</v>
       </c>
       <c r="B33">
-        <v>313.1593613423657</v>
+        <v>321.1668556556777</v>
       </c>
       <c r="C33">
-        <v>-341.5522635788247</v>
+        <v>-354.9738769229045</v>
       </c>
       <c r="D33">
-        <v>20.6767580595027</v>
+        <v>20.03715848564805</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.0011</v>
       </c>
       <c r="B34">
-        <v>288.1845846014173</v>
+        <v>302.4653865816705</v>
       </c>
       <c r="C34">
-        <v>-329.0356667892797</v>
+        <v>-341.7239156222346</v>
       </c>
       <c r="D34">
-        <v>61.92852889593814</v>
+        <v>61.66588776484807</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001133333333333334</v>
       </c>
       <c r="B35">
-        <v>249.8413836123131</v>
+        <v>248.7431418594934</v>
       </c>
       <c r="C35">
-        <v>-318.1044242299509</v>
+        <v>-321.154497503761</v>
       </c>
       <c r="D35">
-        <v>112.0430132058106</v>
+        <v>112.064455624894</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B36">
-        <v>207.8734930246534</v>
+        <v>211.4359016519719</v>
       </c>
       <c r="C36">
-        <v>-326.657111831097</v>
+        <v>-339.384864048599</v>
       </c>
       <c r="D36">
-        <v>141.4761948811283</v>
+        <v>147.2331395797798</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.0012</v>
       </c>
       <c r="B37">
-        <v>182.8506898247187</v>
+        <v>188.9713843435385</v>
       </c>
       <c r="C37">
-        <v>-335.1328131233932</v>
+        <v>-345.5151255116425</v>
       </c>
       <c r="D37">
-        <v>153.0431447779143</v>
+        <v>157.2126501510777</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001233333333333334</v>
       </c>
       <c r="B38">
-        <v>174.0315736100331</v>
+        <v>178.0803562325399</v>
       </c>
       <c r="C38">
-        <v>-345.4702547539659</v>
+        <v>-348.6657280933823</v>
       </c>
       <c r="D38">
-        <v>165.9257193965069</v>
+        <v>166.686715758544</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001266666666666667</v>
       </c>
       <c r="B39">
-        <v>166.3926324416692</v>
+        <v>168.1626312377539</v>
       </c>
       <c r="C39">
-        <v>-346.4704388643843</v>
+        <v>-350.2218523748817</v>
       </c>
       <c r="D39">
-        <v>174.4090675171755</v>
+        <v>177.7613321758166</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.0013</v>
       </c>
       <c r="B40">
-        <v>152.9808526724422</v>
+        <v>155.921791390768</v>
       </c>
       <c r="C40">
-        <v>-335.2306699769294</v>
+        <v>-343.5012248925958</v>
       </c>
       <c r="D40">
-        <v>182.4827307781365</v>
+        <v>188.2805984488416</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B41">
-        <v>141.86420147725</v>
+        <v>149.2236676892918</v>
       </c>
       <c r="C41">
-        <v>-327.4655784071809</v>
+        <v>-345.0094486771549</v>
       </c>
       <c r="D41">
-        <v>207.3436134125622</v>
+        <v>214.2690248056363</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001366666666666667</v>
       </c>
       <c r="B42">
-        <v>112.7914501016053</v>
+        <v>111.5541121283481</v>
       </c>
       <c r="C42">
-        <v>-318.6078848051137</v>
+        <v>-323.7436900510102</v>
       </c>
       <c r="D42">
-        <v>249.6725753382077</v>
+        <v>252.1233398488677</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.0014</v>
       </c>
       <c r="B43">
-        <v>63.36487410678492</v>
+        <v>61.44499308457021</v>
       </c>
       <c r="C43">
-        <v>-328.9109176432308</v>
+        <v>-336.4110406235295</v>
       </c>
       <c r="D43">
-        <v>288.158524124142</v>
+        <v>296.3432794347582</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001433333333333334</v>
       </c>
       <c r="B44">
-        <v>21.49668614629369</v>
+        <v>20.56310115598759</v>
       </c>
       <c r="C44">
-        <v>-341.8690100498146</v>
+        <v>-356.2219028346719</v>
       </c>
       <c r="D44">
-        <v>314.4418352959426</v>
+        <v>326.2450502013577</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001466666666666667</v>
       </c>
       <c r="B45">
-        <v>4.013630370451049</v>
+        <v>5.173940672820176</v>
       </c>
       <c r="C45">
-        <v>-345.236698340466</v>
+        <v>-352.1454868869522</v>
       </c>
       <c r="D45">
-        <v>329.2015387885483</v>
+        <v>330.136885077888</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.0015</v>
       </c>
       <c r="B46">
-        <v>0.04851488850488028</v>
+        <v>0.3387756221044647</v>
       </c>
       <c r="C46">
-        <v>-345.304813848321</v>
+        <v>-351.6644801668058</v>
       </c>
       <c r="D46">
-        <v>346.2436977346784</v>
+        <v>351.75720403227</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001533333333333334</v>
       </c>
       <c r="B47">
-        <v>-3.683743071855594</v>
+        <v>-5.149463682510569</v>
       </c>
       <c r="C47">
-        <v>-328.7739741620069</v>
+        <v>-333.3083806971262</v>
       </c>
       <c r="D47">
-        <v>346.2547971749237</v>
+        <v>354.572422933486</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001566666666666667</v>
       </c>
       <c r="B48">
-        <v>-20.90586336782663</v>
+        <v>-21.00055501279771</v>
       </c>
       <c r="C48">
-        <v>-313.7161030510214</v>
+        <v>-322.0325426070262</v>
       </c>
       <c r="D48">
-        <v>342.1704542791168</v>
+        <v>354.7488865775703</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001600000000000001</v>
       </c>
       <c r="B49">
-        <v>-62.40621935317075</v>
+        <v>-62.09617491548595</v>
       </c>
       <c r="C49">
-        <v>-288.0403329188263</v>
+        <v>-301.4577714018016</v>
       </c>
       <c r="D49">
-        <v>328.2117081752795</v>
+        <v>340.2971987173275</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001633333333333334</v>
       </c>
       <c r="B50">
-        <v>-112.1954152052926</v>
+        <v>-113.090287192686</v>
       </c>
       <c r="C50">
-        <v>-249.7059277921863</v>
+        <v>-247.9457518720404</v>
       </c>
       <c r="D50">
-        <v>317.1928851223212</v>
+        <v>320.3566724592577</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B51">
-        <v>-141.4067923378226</v>
+        <v>-147.6870772330503</v>
       </c>
       <c r="C51">
-        <v>-207.6626500029191</v>
+        <v>-211.5818832097376</v>
       </c>
       <c r="D51">
-        <v>326.0531659646639</v>
+        <v>338.7733218957803</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001700000000000001</v>
       </c>
       <c r="B52">
-        <v>-152.9874977922132</v>
+        <v>-156.8403286955275</v>
       </c>
       <c r="C52">
-        <v>-182.5313472057077</v>
+        <v>-189.082556449284</v>
       </c>
       <c r="D52">
-        <v>334.2664573011426</v>
+        <v>345.3543920643164</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001733333333333334</v>
       </c>
       <c r="B53">
-        <v>-165.8576954582672</v>
+        <v>-166.0357432019345</v>
       </c>
       <c r="C53">
-        <v>-173.8951102346625</v>
+        <v>-178.076459741848</v>
       </c>
       <c r="D53">
-        <v>345.0961414617938</v>
+        <v>348.7652849642135</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001766666666666667</v>
       </c>
       <c r="B54">
-        <v>-174.0475172320949</v>
+        <v>-177.0121787345959</v>
       </c>
       <c r="C54">
-        <v>-166.3618208065001</v>
+        <v>-167.7149625048162</v>
       </c>
       <c r="D54">
-        <v>346.2837385373406</v>
+        <v>349.4202973834477</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.001800000000000001</v>
       </c>
       <c r="B55">
-        <v>-182.3733863894988</v>
+        <v>-188.3639460374058</v>
       </c>
       <c r="C55">
-        <v>-153.1498728925895</v>
+        <v>-155.5652598989883</v>
       </c>
       <c r="D55">
-        <v>335.3885888449782</v>
+        <v>342.8156102769334</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.001833333333333334</v>
       </c>
       <c r="B56">
-        <v>-207.3291088898402</v>
+        <v>-214.4161874548884</v>
       </c>
       <c r="C56">
-        <v>-141.7869623187235</v>
+        <v>-148.5796087009737</v>
       </c>
       <c r="D56">
-        <v>327.2805923053355</v>
+        <v>343.9594860766002</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.001866666666666667</v>
       </c>
       <c r="B57">
-        <v>-249.672657838819</v>
+        <v>-252.0468843993914</v>
       </c>
       <c r="C57">
-        <v>-112.5127894524139</v>
+        <v>-110.94332323675</v>
       </c>
       <c r="D57">
-        <v>318.200847996907</v>
+        <v>324.2014912097772</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.001900000000000001</v>
       </c>
       <c r="B58">
-        <v>-287.5721643548234</v>
+        <v>-295.1484368607066</v>
       </c>
       <c r="C58">
-        <v>-63.09534254508115</v>
+        <v>-61.36913403585811</v>
       </c>
       <c r="D58">
-        <v>328.6226836338026</v>
+        <v>335.7677394460679</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.001933333333333334</v>
       </c>
       <c r="B59">
-        <v>-313.5951413516145</v>
+        <v>-325.7469891332937</v>
       </c>
       <c r="C59">
-        <v>-21.38550644792764</v>
+        <v>-21.08902048501976</v>
       </c>
       <c r="D59">
-        <v>341.61132122904</v>
+        <v>354.3647693514739</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.001966666666666667</v>
       </c>
       <c r="B60">
-        <v>-328.2401370446148</v>
+        <v>-331.5425997893299</v>
       </c>
       <c r="C60">
-        <v>-3.990305676717931</v>
+        <v>-5.587784503927745</v>
       </c>
       <c r="D60">
-        <v>344.8731816343243</v>
+        <v>352.003195457376</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002</v>
       </c>
       <c r="B61">
-        <v>-345.3178644833595</v>
+        <v>-349.70982487753</v>
       </c>
       <c r="C61">
-        <v>0.01196099163464082</v>
+        <v>-0.09356175926650279</v>
       </c>
       <c r="D61">
-        <v>344.7642828268803</v>
+        <v>350.8690181080919</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002033333333333334</v>
       </c>
       <c r="B62">
-        <v>-345.3921456899564</v>
+        <v>-352.6700629786342</v>
       </c>
       <c r="C62">
-        <v>3.731703138820097</v>
+        <v>4.935200372656324</v>
       </c>
       <c r="D62">
-        <v>328.9254508736383</v>
+        <v>333.3691389018501</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002066666666666667</v>
       </c>
       <c r="B63">
-        <v>-341.3916555688079</v>
+        <v>-355.2925246601866</v>
       </c>
       <c r="C63">
-        <v>20.67091824646039</v>
+        <v>20.47141105362207</v>
       </c>
       <c r="D63">
-        <v>313.6639012180801</v>
+        <v>322.7779911516762</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.0021</v>
       </c>
       <c r="B64">
-        <v>-329.0814957709266</v>
+        <v>-342.2396757508201</v>
       </c>
       <c r="C64">
-        <v>62.13176481651011</v>
+        <v>61.77483543012979</v>
       </c>
       <c r="D64">
-        <v>288.5727097069934</v>
+        <v>301.3192965434862</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.002133333333333333</v>
       </c>
       <c r="B65">
-        <v>-318.3564748226831</v>
+        <v>-322.8948648675808</v>
       </c>
       <c r="C65">
-        <v>112.2549495064631</v>
+        <v>111.9780628913061</v>
       </c>
       <c r="D65">
-        <v>249.8909440107912</v>
+        <v>248.2517914495594</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.002166666666666666</v>
       </c>
       <c r="B66">
-        <v>-326.9475522414147</v>
+        <v>-340.7652786418913</v>
       </c>
       <c r="C66">
-        <v>141.6428116178617</v>
+        <v>147.436926100724</v>
       </c>
       <c r="D66">
-        <v>207.6845914446426</v>
+        <v>212.557747342338</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.002199999999999999</v>
       </c>
       <c r="B67">
-        <v>-334.9267007618598</v>
+        <v>-345.2090931291716</v>
       </c>
       <c r="C67">
-        <v>152.9536442709536</v>
+        <v>157.0568953593421</v>
       </c>
       <c r="D67">
-        <v>182.8442125405238</v>
+        <v>189.9330406907762</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002233333333333332</v>
       </c>
       <c r="B68">
-        <v>-345.2359474654446</v>
+        <v>-348.7750782114958</v>
       </c>
       <c r="C68">
-        <v>165.8470643829987</v>
+        <v>167.0236302652957</v>
       </c>
       <c r="D68">
-        <v>174.1277395410531</v>
+        <v>177.9892886645422</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002266666666666666</v>
       </c>
       <c r="B69">
-        <v>-345.9106915456809</v>
+        <v>-350.8967640219664</v>
       </c>
       <c r="C69">
-        <v>174.0809926465486</v>
+        <v>178.0098185840684</v>
       </c>
       <c r="D69">
-        <v>166.2537424730756</v>
+        <v>167.3636985159821</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002299999999999999</v>
       </c>
       <c r="B70">
-        <v>-335.8223563789489</v>
+        <v>-344.0894922168732</v>
       </c>
       <c r="C70">
-        <v>182.63177005586</v>
+        <v>188.3408424701999</v>
       </c>
       <c r="D70">
-        <v>152.9961718215372</v>
+        <v>155.6755013966959</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.002333333333333332</v>
       </c>
       <c r="B71">
-        <v>-328.1589834802085</v>
+        <v>-343.6003187798892</v>
       </c>
       <c r="C71">
-        <v>207.5256948078435</v>
+        <v>213.3336745441958</v>
       </c>
       <c r="D71">
-        <v>141.8697036406041</v>
+        <v>149.0561690116299</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002366666666666665</v>
       </c>
       <c r="B72">
-        <v>-319.3585401991015</v>
+        <v>-322.5784896921413</v>
       </c>
       <c r="C72">
-        <v>249.7711903222768</v>
+        <v>251.2312810852964</v>
       </c>
       <c r="D72">
-        <v>112.6545197788331</v>
+        <v>112.3536112787697</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.002399999999999998</v>
       </c>
       <c r="B73">
-        <v>-330.1702363823827</v>
+        <v>-335.9381599941395</v>
       </c>
       <c r="C73">
-        <v>288.1895483011573</v>
+        <v>295.9536672817196</v>
       </c>
       <c r="D73">
-        <v>62.99895078927475</v>
+        <v>61.76424901562991</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.002433333333333331</v>
       </c>
       <c r="B74">
-        <v>-342.2953257235771</v>
+        <v>-356.379717745402</v>
       </c>
       <c r="C74">
-        <v>314.1067589826196</v>
+        <v>326.4796532536779</v>
       </c>
       <c r="D74">
-        <v>21.15500987968061</v>
+        <v>20.57379806135462</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.002466666666666664</v>
       </c>
       <c r="B75">
-        <v>-344.6970605280029</v>
+        <v>-353.8804454259522</v>
       </c>
       <c r="C75">
-        <v>328.4194225830312</v>
+        <v>332.008213483426</v>
       </c>
       <c r="D75">
-        <v>3.778423370539297</v>
+        <v>5.089082963549707</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.002499999999999997</v>
       </c>
       <c r="B76">
-        <v>-344.453869381494</v>
+        <v>-349.7136119630561</v>
       </c>
       <c r="C76">
-        <v>345.0851143294951</v>
+        <v>349.391687329614</v>
       </c>
       <c r="D76">
-        <v>-0.1256248269418392</v>
+        <v>-0.105607187354112</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002533333333333331</v>
       </c>
       <c r="B77">
-        <v>-328.4394676620583</v>
+        <v>-329.8582900365058</v>
       </c>
       <c r="C77">
-        <v>345.3587905195453</v>
+        <v>351.9275484094222</v>
       </c>
       <c r="D77">
-        <v>-3.772357119193881</v>
+        <v>-4.692178363838173</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.002566666666666664</v>
       </c>
       <c r="B78">
-        <v>-313.1427648557282</v>
+        <v>-321.1694133727558</v>
       </c>
       <c r="C78">
-        <v>341.5471519893841</v>
+        <v>354.9773644052237</v>
       </c>
       <c r="D78">
-        <v>-20.7162516823256</v>
+        <v>-20.07464953371965</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002599999999999997</v>
       </c>
       <c r="B79">
-        <v>-288.1332211089718</v>
+        <v>-302.3908828410742</v>
       </c>
       <c r="C79">
-        <v>329.0104658863957</v>
+        <v>341.6821287061398</v>
       </c>
       <c r="D79">
-        <v>-62.00659742964742</v>
+        <v>-61.74395798566393</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.00263333333333333</v>
       </c>
       <c r="B80">
-        <v>-249.7800822459613</v>
+        <v>-248.6793852800442</v>
       </c>
       <c r="C80">
-        <v>318.1035972057992</v>
+        <v>321.1579252143999</v>
       </c>
       <c r="D80">
-        <v>-112.1001570905047</v>
+        <v>-112.1282983080639</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002666666666666663</v>
       </c>
       <c r="B81">
-        <v>-207.8209439339071</v>
+        <v>-211.3945279635501</v>
       </c>
       <c r="C81">
-        <v>326.6725906142271</v>
+        <v>339.4163714995913</v>
       </c>
       <c r="D81">
-        <v>-141.5028054969675</v>
+        <v>-147.2684417691099</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.002699999999999996</v>
       </c>
       <c r="B82">
-        <v>-182.8285118703349</v>
+        <v>-188.9461911580417</v>
       </c>
       <c r="C82">
-        <v>335.1439722141769</v>
+        <v>345.5068824303568</v>
       </c>
       <c r="D82">
-        <v>-153.056912333131</v>
+        <v>-157.2153874609926</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.002733333333333329</v>
       </c>
       <c r="B83">
-        <v>-174.0242331734937</v>
+        <v>-178.0736487215557</v>
       </c>
       <c r="C83">
-        <v>345.482950363387</v>
+        <v>348.6808485940758</v>
       </c>
       <c r="D83">
-        <v>-165.9438314145897</v>
+        <v>-166.7072403225354</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.002766666666666663</v>
       </c>
       <c r="B84">
-        <v>-166.3747580188007</v>
+        <v>-168.1408054552302</v>
       </c>
       <c r="C84">
-        <v>346.4583569102954</v>
+        <v>350.2099297061566</v>
       </c>
       <c r="D84">
-        <v>-174.4160456707772</v>
+        <v>-177.7712811594182</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.002799999999999996</v>
       </c>
       <c r="B85">
-        <v>-152.9673059241415</v>
+        <v>-155.9069449411942</v>
       </c>
       <c r="C85">
-        <v>335.2205850858013</v>
+        <v>343.4961612989086</v>
       </c>
       <c r="D85">
-        <v>-182.5060250427646</v>
+        <v>-188.3052318544104</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.002833333333333329</v>
       </c>
       <c r="B86">
-        <v>-141.8370242959529</v>
+        <v>-149.2013309850257</v>
       </c>
       <c r="C86">
-        <v>327.4493420082439</v>
+        <v>344.9993135296646</v>
       </c>
       <c r="D86">
-        <v>-207.3942626836503</v>
+        <v>-214.3177530393739</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.002866666666666662</v>
       </c>
       <c r="B87">
-        <v>-112.7350638793639</v>
+        <v>-111.4859603455525</v>
       </c>
       <c r="C87">
-        <v>318.6066333908167</v>
+        <v>323.7237139923377</v>
       </c>
       <c r="D87">
-        <v>-249.7347263520736</v>
+        <v>-252.179970611472</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.002899999999999995</v>
       </c>
       <c r="B88">
-        <v>-63.28783311991326</v>
+        <v>-61.36973224978165</v>
       </c>
       <c r="C88">
-        <v>328.9367850765591</v>
+        <v>336.451954758615</v>
       </c>
       <c r="D88">
-        <v>-288.2103643208682</v>
+        <v>-296.4073414615541</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.002933333333333328</v>
       </c>
       <c r="B89">
-        <v>-21.4562123565365</v>
+        <v>-20.52486078530993</v>
       </c>
       <c r="C89">
-        <v>341.8763330908483</v>
+        <v>356.2283591039921</v>
       </c>
       <c r="D89">
-        <v>-314.4614224366457</v>
+        <v>-326.2568650002879</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.002966666666666661</v>
       </c>
       <c r="B90">
-        <v>-4.000691158350944</v>
+        <v>-5.162172743880533</v>
       </c>
       <c r="C90">
-        <v>345.2411725557542</v>
+        <v>352.1418271911238</v>
       </c>
       <c r="D90">
-        <v>-329.2299112129257</v>
+        <v>-330.1599506452278</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/PhaseVoltage5000.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage5000.xlsx
@@ -408,13 +408,13 @@
         <v>3.333333333333333e-05</v>
       </c>
       <c r="B2">
-        <v>5.13557677705584</v>
+        <v>3.870787475829945</v>
       </c>
       <c r="C2">
-        <v>333.33049007843</v>
+        <v>336.8411536713523</v>
       </c>
       <c r="D2">
-        <v>-354.572251910756</v>
+        <v>-354.8886004659038</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>6.666666666666667e-05</v>
       </c>
       <c r="B3">
-        <v>20.96202462885596</v>
+        <v>21.4904363703014</v>
       </c>
       <c r="C3">
-        <v>322.0338341539702</v>
+        <v>321.9023227199781</v>
       </c>
       <c r="D3">
-        <v>-354.7481407822052</v>
+        <v>-351.1591451426262</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0001</v>
       </c>
       <c r="B4">
-        <v>62.01901327036602</v>
+        <v>63.94851209476013</v>
       </c>
       <c r="C4">
-        <v>301.5359100726055</v>
+        <v>295.6657668720039</v>
       </c>
       <c r="D4">
-        <v>-340.3417114197884</v>
+        <v>-337.1285673659262</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001333333333333333</v>
       </c>
       <c r="B5">
-        <v>113.0270732068901</v>
+        <v>114.8678343071044</v>
       </c>
       <c r="C5">
-        <v>248.0065605046142</v>
+        <v>255.7648869830898</v>
       </c>
       <c r="D5">
-        <v>-320.3508856280542</v>
+        <v>-325.0157469502919</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B6">
-        <v>147.6541570536304</v>
+        <v>145.0506899606879</v>
       </c>
       <c r="C6">
-        <v>211.6255458720462</v>
+        <v>212.9880244797641</v>
       </c>
       <c r="D6">
-        <v>-338.7449089250049</v>
+        <v>-334.4622969662734</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0002</v>
       </c>
       <c r="B7">
-        <v>156.8382384775337</v>
+        <v>156.5982004909837</v>
       </c>
       <c r="C7">
-        <v>189.1064460526858</v>
+        <v>186.9764741858959</v>
       </c>
       <c r="D7">
-        <v>-345.3598924918095</v>
+        <v>-342.1947481407838</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0002333333333333334</v>
       </c>
       <c r="B8">
-        <v>166.0143209938222</v>
+        <v>170.4039026912803</v>
       </c>
       <c r="C8">
-        <v>178.0834830161199</v>
+        <v>178.8167850497298</v>
       </c>
       <c r="D8">
-        <v>-348.7503042786084</v>
+        <v>-354.8689842195986</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002666666666666667</v>
       </c>
       <c r="B9">
-        <v>177.001426541018</v>
+        <v>178.5201988680637</v>
       </c>
       <c r="C9">
-        <v>167.736758810836</v>
+        <v>170.5809568712746</v>
       </c>
       <c r="D9">
-        <v>-349.4316016018172</v>
+        <v>-355.2947413907638</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0003000000000000001</v>
       </c>
       <c r="B10">
-        <v>188.3385469836782</v>
+        <v>187.1313232549424</v>
       </c>
       <c r="C10">
-        <v>155.5803723868425</v>
+        <v>156.8850146692537</v>
       </c>
       <c r="D10">
-        <v>-342.8221778059838</v>
+        <v>-343.8235288720094</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B11">
-        <v>214.3678615782935</v>
+        <v>212.8526504413919</v>
       </c>
       <c r="C11">
-        <v>148.6029632045679</v>
+        <v>145.5907221479279</v>
       </c>
       <c r="D11">
-        <v>-343.9689845812287</v>
+        <v>-336.0644750476766</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0003666666666666668</v>
       </c>
       <c r="B12">
-        <v>251.9923538998985</v>
+        <v>255.9389476181319</v>
       </c>
       <c r="C12">
-        <v>111.0106478162516</v>
+        <v>115.1758409356045</v>
       </c>
       <c r="D12">
-        <v>-324.2209892811947</v>
+        <v>-326.192432977679</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0004000000000000001</v>
       </c>
       <c r="B13">
-        <v>295.0841628728738</v>
+        <v>294.6144943738759</v>
       </c>
       <c r="C13">
-        <v>61.44266778453852</v>
+        <v>64.66338467764135</v>
       </c>
       <c r="D13">
-        <v>-335.7294921186806</v>
+        <v>-337.0422383885399</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0004333333333333335</v>
       </c>
       <c r="B14">
-        <v>325.7313108338</v>
+        <v>321.53331853523</v>
       </c>
       <c r="C14">
-        <v>21.12695836199371</v>
+        <v>21.95461705970236</v>
       </c>
       <c r="D14">
-        <v>-354.3565010798142</v>
+        <v>-350.2435461503774</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0004666666666666668</v>
       </c>
       <c r="B15">
-        <v>331.522284613248</v>
+        <v>336.4517408674321</v>
       </c>
       <c r="C15">
-        <v>5.601131707633905</v>
+        <v>4.068427855614259</v>
       </c>
       <c r="D15">
-        <v>-352.0061573485902</v>
+        <v>-353.4404410431679</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0005000000000000001</v>
       </c>
       <c r="B16">
-        <v>349.6914141745779</v>
+        <v>354.6703347217419</v>
       </c>
       <c r="C16">
-        <v>0.09702452646795368</v>
+        <v>-0.06356125346260177</v>
       </c>
       <c r="D16">
-        <v>-350.8844948291539</v>
+        <v>-354.3910667622239</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0005333333333333335</v>
       </c>
       <c r="B17">
-        <v>352.669910384076</v>
+        <v>353.840760603126</v>
       </c>
       <c r="C17">
-        <v>-4.92285554402963</v>
+        <v>-3.841645381287562</v>
       </c>
       <c r="D17">
-        <v>-333.3925949681418</v>
+        <v>-336.67694724685</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0005666666666666668</v>
       </c>
       <c r="B18">
-        <v>355.2864917343083</v>
+        <v>350.3666457959312</v>
       </c>
       <c r="C18">
-        <v>-20.43254523751217</v>
+        <v>-21.2459584795481</v>
       </c>
       <c r="D18">
-        <v>-322.7772098364501</v>
+        <v>-321.8646979811682</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0006000000000000002</v>
       </c>
       <c r="B19">
-        <v>342.283542165806</v>
+        <v>338.0568020101705</v>
       </c>
       <c r="C19">
-        <v>-61.69799475633994</v>
+        <v>-63.65463676485037</v>
       </c>
       <c r="D19">
-        <v>-301.3992061673978</v>
+        <v>-296.2874331774779</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0006333333333333335</v>
       </c>
       <c r="B20">
-        <v>322.8894609481437</v>
+        <v>326.3512669698528</v>
       </c>
       <c r="C20">
-        <v>-111.914778121594</v>
+        <v>-114.9735776532157</v>
       </c>
       <c r="D20">
-        <v>-248.3121984587118</v>
+        <v>-255.9961719839202</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0006666666666666669</v>
       </c>
       <c r="B21">
-        <v>340.7369926522326</v>
+        <v>335.3385759066929</v>
       </c>
       <c r="C21">
-        <v>-147.4022790878319</v>
+        <v>-145.235599331054</v>
       </c>
       <c r="D21">
-        <v>-212.5983886362107</v>
+        <v>-213.0057339221454</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0007000000000000002</v>
       </c>
       <c r="B22">
-        <v>345.2158135208908</v>
+        <v>342.8799458603514</v>
       </c>
       <c r="C22">
-        <v>-157.0526118273422</v>
+        <v>-156.4992243255917</v>
       </c>
       <c r="D22">
-        <v>-189.957722359798</v>
+        <v>-187.2168993720905</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0007333333333333336</v>
       </c>
       <c r="B23">
-        <v>348.7604611583506</v>
+        <v>354.9585025336888</v>
       </c>
       <c r="C23">
-        <v>-167.0037705306639</v>
+        <v>-170.4704099762762</v>
       </c>
       <c r="D23">
-        <v>-177.9988807306815</v>
+        <v>-178.968711437312</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0007666666666666669</v>
       </c>
       <c r="B24">
-        <v>350.9075175762335</v>
+        <v>354.8593049429722</v>
       </c>
       <c r="C24">
-        <v>-177.9995821679502</v>
+        <v>-178.6061347985424</v>
       </c>
       <c r="D24">
-        <v>-167.3854752297699</v>
+        <v>-170.37110900587</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.0008000000000000003</v>
       </c>
       <c r="B25">
-        <v>344.0967261180266</v>
+        <v>344.2237169265399</v>
       </c>
       <c r="C25">
-        <v>-188.3174442016557</v>
+        <v>-187.3914836463035</v>
       </c>
       <c r="D25">
-        <v>-155.6896957506521</v>
+        <v>-156.6773243243134</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0008333333333333336</v>
       </c>
       <c r="B26">
-        <v>343.6108866956035</v>
+        <v>336.9002639841408</v>
       </c>
       <c r="C26">
-        <v>-213.2847712480304</v>
+        <v>-212.9909384487205</v>
       </c>
       <c r="D26">
-        <v>-149.0773590926066</v>
+        <v>-145.646496027544</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.000866666666666667</v>
       </c>
       <c r="B27">
-        <v>322.6010988087223</v>
+        <v>327.4353859087774</v>
       </c>
       <c r="C27">
-        <v>-251.17683834915</v>
+        <v>-256.0203541616256</v>
       </c>
       <c r="D27">
-        <v>-112.4216634540417</v>
+        <v>-115.3381596363641</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.0009000000000000003</v>
       </c>
       <c r="B28">
-        <v>335.894821838485</v>
+        <v>338.5402074732644</v>
       </c>
       <c r="C28">
-        <v>-295.8878596917722</v>
+        <v>-295.2495100970343</v>
       </c>
       <c r="D28">
-        <v>-61.84016571101</v>
+        <v>-64.54482654596055</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.0009333333333333336</v>
       </c>
       <c r="B29">
-        <v>356.3709671073251</v>
+        <v>350.8519199028618</v>
       </c>
       <c r="C29">
-        <v>-326.4641725422817</v>
+        <v>-322.0413768896199</v>
       </c>
       <c r="D29">
-        <v>-20.61175753493988</v>
+        <v>-21.69055209654755</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.000966666666666667</v>
       </c>
       <c r="B30">
-        <v>353.8864257016501</v>
+        <v>353.477064559976</v>
       </c>
       <c r="C30">
-        <v>-331.9895007074899</v>
+        <v>-336.7690357706059</v>
       </c>
       <c r="D30">
-        <v>-5.102135310301737</v>
+        <v>-3.911079974035919</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.001</v>
       </c>
       <c r="B31">
-        <v>349.7311988708</v>
+        <v>354.111084117488</v>
       </c>
       <c r="C31">
-        <v>-349.3728230810119</v>
+        <v>-354.4628925239782</v>
       </c>
       <c r="D31">
-        <v>0.1023936007059356</v>
+        <v>0.1336124207537703</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.001033333333333334</v>
       </c>
       <c r="B32">
-        <v>329.883743328252</v>
+        <v>336.1404030782198</v>
       </c>
       <c r="C32">
-        <v>-351.9273094126401</v>
+        <v>-353.7183459304479</v>
       </c>
       <c r="D32">
-        <v>4.680377199545865</v>
+        <v>3.913899409573734</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.001066666666666667</v>
       </c>
       <c r="B33">
-        <v>321.1668556556777</v>
+        <v>321.1645453997644</v>
       </c>
       <c r="C33">
-        <v>-354.9738769229045</v>
+        <v>-350.4015350361902</v>
       </c>
       <c r="D33">
-        <v>20.03715848564805</v>
+        <v>21.34968102368642</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.0011</v>
       </c>
       <c r="B34">
-        <v>302.4653865816705</v>
+        <v>295.7582272622154</v>
       </c>
       <c r="C34">
-        <v>-341.7239156222346</v>
+        <v>-337.8934514574182</v>
       </c>
       <c r="D34">
-        <v>61.66588776484807</v>
+        <v>63.54182289424192</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.001133333333333334</v>
       </c>
       <c r="B35">
-        <v>248.7431418594934</v>
+        <v>255.9477606121366</v>
       </c>
       <c r="C35">
-        <v>-321.154497503761</v>
+        <v>-326.0513939323723</v>
       </c>
       <c r="D35">
-        <v>112.064455624894</v>
+        <v>114.7487804213081</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B36">
-        <v>211.4359016519719</v>
+        <v>213.1196014807796</v>
       </c>
       <c r="C36">
-        <v>-339.384864048599</v>
+        <v>-334.9428131541346</v>
       </c>
       <c r="D36">
-        <v>147.2331395797798</v>
+        <v>145.0948862745417</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.0012</v>
       </c>
       <c r="B37">
-        <v>188.9713843435385</v>
+        <v>187.1569848894958</v>
       </c>
       <c r="C37">
-        <v>-345.5151255116425</v>
+        <v>-343.0233576944484</v>
       </c>
       <c r="D37">
-        <v>157.2126501510777</v>
+        <v>156.6239152708759</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001233333333333334</v>
       </c>
       <c r="B38">
-        <v>178.0803562325399</v>
+        <v>178.8157120598044</v>
       </c>
       <c r="C38">
-        <v>-348.6657280933823</v>
+        <v>-355.0990452350993</v>
       </c>
       <c r="D38">
-        <v>166.686715758544</v>
+        <v>170.5267635691003</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001266666666666667</v>
       </c>
       <c r="B39">
-        <v>168.1626312377539</v>
+        <v>170.6218551230196</v>
       </c>
       <c r="C39">
-        <v>-350.2218523748817</v>
+        <v>-355.3684302341997</v>
       </c>
       <c r="D39">
-        <v>177.7613321758166</v>
+        <v>178.8269408086539</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.0013</v>
       </c>
       <c r="B40">
-        <v>155.921791390768</v>
+        <v>156.6997278724565</v>
       </c>
       <c r="C40">
-        <v>-343.5012248925958</v>
+        <v>-343.424632737518</v>
       </c>
       <c r="D40">
-        <v>188.2805984488416</v>
+        <v>187.1408661645181</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B41">
-        <v>149.2236676892918</v>
+        <v>145.5944051387416</v>
       </c>
       <c r="C41">
-        <v>-345.0094486771549</v>
+        <v>-336.156794444805</v>
       </c>
       <c r="D41">
-        <v>214.2690248056363</v>
+        <v>212.8573785079059</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.001366666666666667</v>
       </c>
       <c r="B42">
-        <v>111.5541121283481</v>
+        <v>115.3310296467501</v>
       </c>
       <c r="C42">
-        <v>-323.7436900510102</v>
+        <v>-326.7061694495026</v>
       </c>
       <c r="D42">
-        <v>252.1233398488677</v>
+        <v>256.109599907662</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.0014</v>
       </c>
       <c r="B43">
-        <v>61.44499308457021</v>
+        <v>64.85964796590429</v>
       </c>
       <c r="C43">
-        <v>-336.4110406235295</v>
+        <v>-337.3380507471043</v>
       </c>
       <c r="D43">
-        <v>296.3432794347582</v>
+        <v>295.295659480748</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001433333333333334</v>
       </c>
       <c r="B44">
-        <v>20.56310115598759</v>
+        <v>22.03672776458568</v>
       </c>
       <c r="C44">
-        <v>-356.2219028346719</v>
+        <v>-350.3095511016456</v>
       </c>
       <c r="D44">
-        <v>326.2450502013577</v>
+        <v>322.278233887072</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001466666666666667</v>
       </c>
       <c r="B45">
-        <v>5.173940672820176</v>
+        <v>4.094584144283958</v>
       </c>
       <c r="C45">
-        <v>-352.1454868869522</v>
+        <v>-353.8095715036341</v>
       </c>
       <c r="D45">
-        <v>330.136885077888</v>
+        <v>337.4697569151621</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.0015</v>
       </c>
       <c r="B46">
-        <v>0.3387756221044647</v>
+        <v>-0.01865484351576407</v>
       </c>
       <c r="C46">
-        <v>-351.6644801668058</v>
+        <v>-355.0307689555759</v>
       </c>
       <c r="D46">
-        <v>351.75720403227</v>
+        <v>355.7191883560438</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001533333333333334</v>
       </c>
       <c r="B47">
-        <v>-5.149463682510569</v>
+        <v>-3.883823130407943</v>
       </c>
       <c r="C47">
-        <v>-333.3083806971262</v>
+        <v>-336.8112048211698</v>
       </c>
       <c r="D47">
-        <v>354.572422933486</v>
+        <v>354.882878316018</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001566666666666667</v>
       </c>
       <c r="B48">
-        <v>-21.00055501279771</v>
+        <v>-21.53049449294189</v>
       </c>
       <c r="C48">
-        <v>-322.0325426070262</v>
+        <v>-321.8830742010265</v>
       </c>
       <c r="D48">
-        <v>354.7488865775703</v>
+        <v>351.1503071011779</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001600000000000001</v>
       </c>
       <c r="B49">
-        <v>-62.09617491548595</v>
+        <v>-64.02819350896442</v>
       </c>
       <c r="C49">
-        <v>-301.4577714018016</v>
+        <v>-295.6117608795835</v>
       </c>
       <c r="D49">
-        <v>340.2971987173275</v>
+        <v>337.1011127092328</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001633333333333334</v>
       </c>
       <c r="B50">
-        <v>-113.090287192686</v>
+        <v>-114.9261196744321</v>
       </c>
       <c r="C50">
-        <v>-247.9457518720404</v>
+        <v>-255.703075701566</v>
       </c>
       <c r="D50">
-        <v>320.3566724592577</v>
+        <v>325.0158701496641</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B51">
-        <v>-147.6870772330503</v>
+        <v>-145.0783246489978</v>
       </c>
       <c r="C51">
-        <v>-211.5818832097376</v>
+        <v>-212.9342063711584</v>
       </c>
       <c r="D51">
-        <v>338.7733218957803</v>
+        <v>334.478461570633</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001700000000000001</v>
       </c>
       <c r="B52">
-        <v>-156.8403286955275</v>
+        <v>-156.6141343043038</v>
       </c>
       <c r="C52">
-        <v>-189.082556449284</v>
+        <v>-186.9557614009677</v>
       </c>
       <c r="D52">
-        <v>345.3543920643164</v>
+        <v>342.2082616306565</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001733333333333334</v>
       </c>
       <c r="B53">
-        <v>-166.0357432019345</v>
+        <v>-170.4228070592923</v>
       </c>
       <c r="C53">
-        <v>-178.076459741848</v>
+        <v>-178.8104610907324</v>
       </c>
       <c r="D53">
-        <v>348.7652849642135</v>
+        <v>354.8860059373444</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001766666666666667</v>
       </c>
       <c r="B54">
-        <v>-177.0121787345959</v>
+        <v>-178.52626911831</v>
       </c>
       <c r="C54">
-        <v>-167.7149625048162</v>
+        <v>-170.5607475433739</v>
       </c>
       <c r="D54">
-        <v>349.4202973834477</v>
+        <v>355.2786506741941</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.001800000000000001</v>
       </c>
       <c r="B55">
-        <v>-188.3639460374058</v>
+        <v>-187.1548580364035</v>
       </c>
       <c r="C55">
-        <v>-155.5652598989883</v>
+        <v>-156.8708348364915</v>
       </c>
       <c r="D55">
-        <v>342.8156102769334</v>
+        <v>343.8125155859474</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.001833333333333334</v>
       </c>
       <c r="B56">
-        <v>-214.4161874548884</v>
+        <v>-212.9030773802699</v>
       </c>
       <c r="C56">
-        <v>-148.5796087009737</v>
+        <v>-145.5616201077023</v>
       </c>
       <c r="D56">
-        <v>343.9594860766002</v>
+        <v>336.0460749942321</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.001866666666666667</v>
       </c>
       <c r="B57">
-        <v>-252.0468843993914</v>
+        <v>-256.0028007880646</v>
       </c>
       <c r="C57">
-        <v>-110.94332323675</v>
+        <v>-115.1183361068259</v>
       </c>
       <c r="D57">
-        <v>324.2014912097772</v>
+        <v>326.192050897158</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.001900000000000001</v>
       </c>
       <c r="B58">
-        <v>-295.1484368607066</v>
+        <v>-294.6663409398878</v>
       </c>
       <c r="C58">
-        <v>-61.36913403585811</v>
+        <v>-64.58423489522636</v>
       </c>
       <c r="D58">
-        <v>335.7677394460679</v>
+        <v>337.0683344780063</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.001933333333333334</v>
       </c>
       <c r="B59">
-        <v>-325.7469891332937</v>
+        <v>-321.55415357275</v>
       </c>
       <c r="C59">
-        <v>-21.08902048501976</v>
+        <v>-21.91368593491561</v>
       </c>
       <c r="D59">
-        <v>354.3647693514739</v>
+        <v>350.2516928559077</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.001966666666666667</v>
       </c>
       <c r="B60">
-        <v>-331.5425997893299</v>
+        <v>-336.482980383444</v>
       </c>
       <c r="C60">
-        <v>-5.587784503927745</v>
+        <v>-4.054827083040114</v>
       </c>
       <c r="D60">
-        <v>352.003195457376</v>
+        <v>353.4468133151898</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.002</v>
       </c>
       <c r="B61">
-        <v>-349.70982487753</v>
+        <v>-354.682450207398</v>
       </c>
       <c r="C61">
-        <v>-0.09356175926650279</v>
+        <v>0.06478370223814145</v>
       </c>
       <c r="D61">
-        <v>350.8690181080919</v>
+        <v>354.37956883267</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.002033333333333334</v>
       </c>
       <c r="B62">
-        <v>-352.6700629786342</v>
+        <v>-353.8323579859861</v>
       </c>
       <c r="C62">
-        <v>4.935200372656324</v>
+        <v>3.854034107511617</v>
       </c>
       <c r="D62">
-        <v>333.3691389018501</v>
+        <v>336.6452304912441</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.002066666666666667</v>
       </c>
       <c r="B63">
-        <v>-355.2925246601866</v>
+        <v>-350.3604439257641</v>
       </c>
       <c r="C63">
-        <v>20.47141105362207</v>
+        <v>21.2864551452141</v>
       </c>
       <c r="D63">
-        <v>322.7779911516762</v>
+        <v>321.8467565429896</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.0021</v>
       </c>
       <c r="B64">
-        <v>-342.2396757508201</v>
+        <v>-338.0313454494461</v>
       </c>
       <c r="C64">
-        <v>61.77483543012979</v>
+        <v>63.73462644562387</v>
       </c>
       <c r="D64">
-        <v>301.3192965434862</v>
+        <v>296.2336835664582</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.002133333333333333</v>
       </c>
       <c r="B65">
-        <v>-322.8948648675808</v>
+        <v>-326.3501573425106</v>
       </c>
       <c r="C65">
-        <v>111.9780628913061</v>
+        <v>115.0320927964743</v>
       </c>
       <c r="D65">
-        <v>248.2517914495594</v>
+        <v>255.932839571156</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.002166666666666666</v>
       </c>
       <c r="B66">
-        <v>-340.7652786418913</v>
+        <v>-335.3580480052781</v>
       </c>
       <c r="C66">
-        <v>147.436926100724</v>
+        <v>145.2648450617835</v>
       </c>
       <c r="D66">
-        <v>212.557747342338</v>
+        <v>212.9552386274478</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.002199999999999999</v>
       </c>
       <c r="B67">
-        <v>-345.2090931291716</v>
+        <v>-342.8881545533916</v>
       </c>
       <c r="C67">
-        <v>157.0568953593421</v>
+        <v>156.5119251884364</v>
       </c>
       <c r="D67">
-        <v>189.9330406907762</v>
+        <v>187.1921190997182</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.002233333333333332</v>
       </c>
       <c r="B68">
-        <v>-348.7750782114958</v>
+        <v>-354.9752123742038</v>
       </c>
       <c r="C68">
-        <v>167.0236302652957</v>
+        <v>170.4903905739942</v>
       </c>
       <c r="D68">
-        <v>177.9892886645422</v>
+        <v>178.9633006652358</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.002266666666666666</v>
       </c>
       <c r="B69">
-        <v>-350.8967640219664</v>
+        <v>-354.8436160278372</v>
       </c>
       <c r="C69">
-        <v>178.0098185840684</v>
+        <v>178.612445325764</v>
       </c>
       <c r="D69">
-        <v>167.3636985159821</v>
+        <v>170.350321906846</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.002299999999999999</v>
       </c>
       <c r="B70">
-        <v>-344.0894922168732</v>
+        <v>-344.2148199558686</v>
       </c>
       <c r="C70">
-        <v>188.3408424701999</v>
+        <v>187.4157409165314</v>
       </c>
       <c r="D70">
-        <v>155.6755013966959</v>
+        <v>156.6641625137942</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.002333333333333332</v>
       </c>
       <c r="B71">
-        <v>-343.6003187798892</v>
+        <v>-336.8835167044724</v>
       </c>
       <c r="C71">
-        <v>213.3336745441958</v>
+        <v>213.0423289369882</v>
       </c>
       <c r="D71">
-        <v>149.0561690116299</v>
+        <v>145.6186579847779</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.002366666666666665</v>
       </c>
       <c r="B72">
-        <v>-322.5784896921413</v>
+        <v>-327.4346000270727</v>
       </c>
       <c r="C72">
-        <v>251.2312810852964</v>
+        <v>256.0834716485723</v>
       </c>
       <c r="D72">
-        <v>112.3536112787697</v>
+        <v>115.2798747334025</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.002399999999999998</v>
       </c>
       <c r="B73">
-        <v>-335.9381599941395</v>
+        <v>-338.566214643868</v>
       </c>
       <c r="C73">
-        <v>295.9536672817196</v>
+        <v>295.302214998408</v>
       </c>
       <c r="D73">
-        <v>61.76424901562991</v>
+        <v>64.46487530344936</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.002433333333333331</v>
       </c>
       <c r="B74">
-        <v>-356.379717745402</v>
+        <v>-350.8588172372546</v>
       </c>
       <c r="C74">
-        <v>326.4796532536779</v>
+        <v>322.06211580222</v>
       </c>
       <c r="D74">
-        <v>20.57379806135462</v>
+        <v>21.65009314031435</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.002466666666666664</v>
       </c>
       <c r="B75">
-        <v>-353.8804454259522</v>
+        <v>-353.481381977248</v>
       </c>
       <c r="C75">
-        <v>332.008213483426</v>
+        <v>336.7977305694637</v>
       </c>
       <c r="D75">
-        <v>5.089082963549707</v>
+        <v>3.897407456537882</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.002499999999999997</v>
       </c>
       <c r="B76">
-        <v>-349.7136119630561</v>
+        <v>-354.1003160252461</v>
       </c>
       <c r="C76">
-        <v>349.391687329614</v>
+        <v>354.4760686236763</v>
       </c>
       <c r="D76">
-        <v>-0.105607187354112</v>
+        <v>-0.1350869602859128</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002533333333333331</v>
       </c>
       <c r="B77">
-        <v>-329.8582900365058</v>
+        <v>-336.1103446973258</v>
       </c>
       <c r="C77">
-        <v>351.9275484094222</v>
+        <v>353.7124317738737</v>
       </c>
       <c r="D77">
-        <v>-4.692178363838173</v>
+        <v>-3.927116046881923</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.002566666666666664</v>
       </c>
       <c r="B78">
-        <v>-321.1694133727558</v>
+        <v>-321.1457490433421</v>
       </c>
       <c r="C78">
-        <v>354.9773644052237</v>
+        <v>350.3943982629588</v>
       </c>
       <c r="D78">
-        <v>-20.07464953371965</v>
+        <v>-21.38949975309182</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002599999999999997</v>
       </c>
       <c r="B79">
-        <v>-302.3908828410742</v>
+        <v>-295.7039502014543</v>
       </c>
       <c r="C79">
-        <v>341.6821287061398</v>
+        <v>337.8665952589724</v>
       </c>
       <c r="D79">
-        <v>-61.74395798566393</v>
+        <v>-63.62100071194421</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.00263333333333333</v>
       </c>
       <c r="B80">
-        <v>-248.6793852800442</v>
+        <v>-255.8839259083539</v>
       </c>
       <c r="C80">
-        <v>321.1579252143999</v>
+        <v>326.0483042500178</v>
       </c>
       <c r="D80">
-        <v>-112.1282983080639</v>
+        <v>-114.8064401458704</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002666666666666663</v>
       </c>
       <c r="B81">
-        <v>-211.3945279635501</v>
+        <v>-213.0683995912597</v>
       </c>
       <c r="C81">
-        <v>339.4163714995913</v>
+        <v>334.9620653419076</v>
       </c>
       <c r="D81">
-        <v>-147.2684417691099</v>
+        <v>-145.1245273619936</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.002699999999999996</v>
       </c>
       <c r="B82">
-        <v>-188.9461911580417</v>
+        <v>-187.1337210766044</v>
       </c>
       <c r="C82">
-        <v>345.5068824303568</v>
+        <v>343.0347529797577</v>
       </c>
       <c r="D82">
-        <v>-157.2153874609926</v>
+        <v>-156.6382904950057</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.002733333333333329</v>
       </c>
       <c r="B83">
-        <v>-178.0736487215557</v>
+        <v>-178.8110242087859</v>
       </c>
       <c r="C83">
-        <v>348.6808485940758</v>
+        <v>355.1165036455188</v>
       </c>
       <c r="D83">
-        <v>-166.7072403225354</v>
+        <v>-170.5474710265685</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.002766666666666663</v>
       </c>
       <c r="B84">
-        <v>-168.1408054552302</v>
+        <v>-170.6000845407098</v>
       </c>
       <c r="C84">
-        <v>350.2099297061566</v>
+        <v>355.350200986795</v>
       </c>
       <c r="D84">
-        <v>-177.7712811594182</v>
+        <v>-178.8315695594261</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.002799999999999996</v>
       </c>
       <c r="B85">
-        <v>-155.9069449411942</v>
+        <v>-156.6851969444081</v>
       </c>
       <c r="C85">
-        <v>343.4961612989086</v>
+        <v>343.4131890035328</v>
       </c>
       <c r="D85">
-        <v>-188.3052318544104</v>
+        <v>-187.163159196084</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.002833333333333329</v>
       </c>
       <c r="B86">
-        <v>-149.2013309850257</v>
+        <v>-145.5672846871758</v>
       </c>
       <c r="C86">
-        <v>344.9993135296646</v>
+        <v>336.1411837281943</v>
       </c>
       <c r="D86">
-        <v>-214.3177530393739</v>
+        <v>-212.9096778313695</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.002866666666666662</v>
       </c>
       <c r="B87">
-        <v>-111.4859603455525</v>
+        <v>-115.272887752204</v>
       </c>
       <c r="C87">
-        <v>323.7237139923377</v>
+        <v>326.7057404355164</v>
       </c>
       <c r="D87">
-        <v>-252.179970611472</v>
+        <v>-256.1742540824863</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.002899999999999995</v>
       </c>
       <c r="B88">
-        <v>-61.36973224978165</v>
+        <v>-64.78086814670213</v>
       </c>
       <c r="C88">
-        <v>336.451954758615</v>
+        <v>337.3642705670478</v>
       </c>
       <c r="D88">
-        <v>-296.4073414615541</v>
+        <v>-295.3484609805678</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.002933333333333328</v>
       </c>
       <c r="B89">
-        <v>-20.52486078530993</v>
+        <v>-21.99558560410583</v>
       </c>
       <c r="C89">
-        <v>356.2283591039921</v>
+        <v>350.3158953124266</v>
       </c>
       <c r="D89">
-        <v>-326.2568650002879</v>
+        <v>-322.2972264504759</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.002966666666666661</v>
       </c>
       <c r="B90">
-        <v>-5.162172743880533</v>
+        <v>-4.081340360320013</v>
       </c>
       <c r="C90">
-        <v>352.1418271911238</v>
+        <v>353.8172887181619</v>
       </c>
       <c r="D90">
-        <v>-330.1599506452278</v>
+        <v>-337.5018592328083</v>
       </c>
     </row>
   </sheetData>
